--- a/API/database/APITestCase.xlsx
+++ b/API/database/APITestCase.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="21045" windowHeight="12240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="107">
   <si>
     <t>module</t>
   </si>
@@ -27,7 +27,7 @@
     <t>ID</t>
   </si>
   <si>
-    <t>UseCase</t>
+    <t>case_name</t>
   </si>
   <si>
     <t>url</t>
@@ -60,10 +60,157 @@
     <t xml:space="preserve"> testers</t>
   </si>
   <si>
-    <t>查询发布会</t>
-  </si>
-  <si>
-    <t>event_query_001</t>
+    <t>听芝心理-人格原型</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_001</t>
+  </si>
+  <si>
+    <t>首页详情</t>
+  </si>
+  <si>
+    <t>https://sandbox-xinli.fxz365.com/api/ydl/product/details</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"product_id":"ren_ge_yuan_xing","channel":"test"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_002</t>
+  </si>
+  <si>
+    <t>首页详情缺少参数渠道号</t>
+  </si>
+  <si>
+    <t>{"product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_003</t>
+  </si>
+  <si>
+    <t>首页详情缺少参数产品id</t>
+  </si>
+  <si>
+    <t>{"channel":"test"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_004</t>
+  </si>
+  <si>
+    <t>首页详情参数为空</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_005</t>
+  </si>
+  <si>
+    <t>首页详情产品id值为空</t>
+  </si>
+  <si>
+    <t>{"product_id":"","channel":"test"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_006</t>
+  </si>
+  <si>
+    <t>首页详情全部参数值为空</t>
+  </si>
+  <si>
+    <t>{"product_id":"","channel":""}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_007</t>
+  </si>
+  <si>
+    <t>首页详情渠道号值为空</t>
+  </si>
+  <si>
+    <t>{"product_id":"ren_ge_yuan_xing","channel":""}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_008</t>
+  </si>
+  <si>
+    <t>首页详情渠道号值为数字</t>
+  </si>
+  <si>
+    <t>{"product_id":"ren_ge_yuan_xing","channel":"123"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_009</t>
+  </si>
+  <si>
+    <t>首页详情渠道号值为特殊符号</t>
+  </si>
+  <si>
+    <t>{"product_id":"ren_ge_yuan_xing","channel":"%&amp;"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_010</t>
+  </si>
+  <si>
+    <t>首页详情渠道号值为null</t>
+  </si>
+  <si>
+    <t>{"product_id":"ren_ge_yuan_xing","channel":"null"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_011</t>
+  </si>
+  <si>
+    <t>首页详情渠道号值为其他字母</t>
+  </si>
+  <si>
+    <t>{"product_id":"ren_ge_yuan_xing","channel":"aslgfj"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_012</t>
+  </si>
+  <si>
+    <t>首页详情产品id值为其他字母</t>
+  </si>
+  <si>
+    <t>{"product_id":"gdfhd","channel":"test"}</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_013</t>
+  </si>
+  <si>
+    <t>首页详情产品id值为数字</t>
+  </si>
+  <si>
+    <t>{"product_id":"2222","channel":"test"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_014</t>
+  </si>
+  <si>
+    <t>首页详情产品id值为特殊符号+其他混合</t>
+  </si>
+  <si>
+    <t>{"product_id":"&amp;%^8","channel":"test"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_015</t>
+  </si>
+  <si>
+    <t>首页详情产品id值为null</t>
+  </si>
+  <si>
+    <t>{"product_id":"null","channel":"test"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_016</t>
+  </si>
+  <si>
+    <t>首页详情响应状态码非200判断</t>
   </si>
   <si>
     <t>结果页详情</t>
@@ -72,43 +219,127 @@
     <t>http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
     <t>{"channel":"test","schannel":"","product_id":"ren_ge_yuan_xing"}</t>
   </si>
   <si>
     <t>获取成功</t>
   </si>
   <si>
-    <t>event_query_002</t>
-  </si>
-  <si>
-    <t>支付页文案</t>
-  </si>
-  <si>
-    <t>http://sandbox-xinli.fxz365.com/api/payments/config</t>
-  </si>
-  <si>
-    <t>post</t>
-  </si>
-  <si>
-    <t>success</t>
-  </si>
-  <si>
-    <t>event_query_003</t>
-  </si>
-  <si>
-    <t>提交文案</t>
-  </si>
-  <si>
-    <t>http://sandbox-xinli.fxz365.com/api/question</t>
-  </si>
-  <si>
-    <t>{"order_id":"LJXL15873786490950004",            "answers":'["A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","A","B","B","B","B","B","B","B","B","B","B","B","A"]'}</t>
-  </si>
-  <si>
-    <t>提交成功</t>
+    <t>结果页详情响应msg错误</t>
+  </si>
+  <si>
+    <t>处理成功</t>
+  </si>
+  <si>
+    <t>结果页详情响应状态码错误</t>
+  </si>
+  <si>
+    <t>结果页详情没有参数</t>
+  </si>
+  <si>
+    <t>422</t>
+  </si>
+  <si>
+    <t>结果页详情参数值都为空</t>
+  </si>
+  <si>
+    <t>{"channel":"","schannel":"","product_id":""}</t>
+  </si>
+  <si>
+    <t>结果页详情参数值都为null</t>
+  </si>
+  <si>
+    <t>{"channel":"null","schannel":"null","product_id":"null"}</t>
+  </si>
+  <si>
+    <t>结果页详情参数只有渠道号</t>
+  </si>
+  <si>
+    <t>结果页详情参数只有schannel</t>
+  </si>
+  <si>
+    <t>{"schannel":""}</t>
+  </si>
+  <si>
+    <t>结果页详情参数只有产品id</t>
+  </si>
+  <si>
+    <t>结果页详情参数只有渠道号和产品id</t>
+  </si>
+  <si>
+    <t>{"channel":"test","product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>结果页详情参数只有渠道号和schannel</t>
+  </si>
+  <si>
+    <t>{"channel":"test","schannel":""}</t>
+  </si>
+  <si>
+    <t>结果页详情参数只有schannel和产品id</t>
+  </si>
+  <si>
+    <t>{"schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>结果页详情渠道号参数值为数字</t>
+  </si>
+  <si>
+    <t>{"channel":"123","schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>结果页详情渠道号参数值为特殊符号</t>
+  </si>
+  <si>
+    <t>{"channel":"￥#……DFg","schannel":"","product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>结果页详情schannel参数值为数字</t>
+  </si>
+  <si>
+    <t>{"channel":"test","schannel":"12454","product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>结果页详情schannel参数值为特殊符号</t>
+  </si>
+  <si>
+    <t>{"channel":"test","schannel":"#￥……","product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_017</t>
+  </si>
+  <si>
+    <t>结果页详情schannel参数值为字母</t>
+  </si>
+  <si>
+    <t>{"channel":"test","schannel":"dshd","product_id":"ren_ge_yuan_xing"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_018</t>
+  </si>
+  <si>
+    <t>结果页详情产品id参数值为字母</t>
+  </si>
+  <si>
+    <t>{"channel":"test","schannel":"","product_id":"ghhf"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_019</t>
+  </si>
+  <si>
+    <t>结果页详情产品id参数值为数字</t>
+  </si>
+  <si>
+    <t>{"channel":"test","schannel":"","product_id":"1235"}</t>
+  </si>
+  <si>
+    <t>tingzhixinli_rgyx_020</t>
+  </si>
+  <si>
+    <t>结果页详情产品id参数值为特殊符号</t>
+  </si>
+  <si>
+    <t>{"channel":"test","schannel":"","product_id":"%*^&amp;"}</t>
   </si>
 </sst>
 </file>
@@ -786,9 +1017,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,6 +1027,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1151,16 +1382,659 @@
   <sheetPr/>
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="10.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="24" customHeight="1" spans="1:13">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1" spans="1:13">
+      <c r="A2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8">
+        <v>200</v>
+      </c>
+      <c r="K2" s="6"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:13">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="8">
+        <v>200</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="10"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:13">
+      <c r="A4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8">
+        <v>200</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:13">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8">
+        <v>200</v>
+      </c>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8">
+        <v>200</v>
+      </c>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8">
+        <v>200</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" ht="43.5" customHeight="1" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8">
+        <v>200</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" ht="55.5" customHeight="1" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8">
+        <v>200</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" ht="57" customHeight="1" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8">
+        <v>200</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" ht="52.5" customHeight="1" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8">
+        <v>200</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" ht="51.75" customHeight="1" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8">
+        <v>200</v>
+      </c>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" ht="35.25" customHeight="1" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="6"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" ht="30" customHeight="1" spans="1:13">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K14" s="6"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" ht="30" customHeight="1" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" ht="30" customHeight="1" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:M17">
+    <extLst/>
+  </autoFilter>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D4" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D5" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D6" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D7" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D8" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D9" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D10" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D11" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D12" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D13" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D14" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D15" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D16" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+    <hyperlink ref="D17" r:id="rId1" display="https://sandbox-xinli.fxz365.com/api/ydl/product/details" tooltip="https://sandbox-xinli.fxz365.com/api/ydl/product/details"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="14.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="36.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.25" customWidth="1"/>
@@ -1222,394 +2096,809 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9">
+      <c r="I2" s="7"/>
+      <c r="J2" s="8">
         <v>200</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="11"/>
+        <v>67</v>
+      </c>
+      <c r="L2" s="9"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:13">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="9">
+      <c r="I3" s="7"/>
+      <c r="J3" s="8">
         <v>200</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:13">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="8"/>
-      <c r="J4" s="9">
-        <v>200</v>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="8" t="s">
+        <v>52</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="L4" s="6"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:13">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="5"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:13">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="6"/>
+    <row r="6" ht="43.5" customHeight="1" spans="1:13">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>74</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8">
+        <v>200</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="5"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:13">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="6"/>
+    <row r="7" ht="55.5" customHeight="1" spans="1:13">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>76</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8">
+        <v>200</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="5"/>
     </row>
-    <row r="8" ht="43.5" customHeight="1" spans="1:13">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="6"/>
+    <row r="8" ht="57" customHeight="1" spans="1:13">
+      <c r="A8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" ht="55.5" customHeight="1" spans="1:13">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="6"/>
+    <row r="9" ht="52.5" customHeight="1" spans="1:13">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>79</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="9"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="5"/>
     </row>
-    <row r="10" ht="57" customHeight="1" spans="1:13">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="6"/>
+    <row r="10" ht="51.75" customHeight="1" spans="1:13">
+      <c r="A10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" ht="52.5" customHeight="1" spans="1:13">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="6"/>
+    <row r="11" ht="35.25" customHeight="1" spans="1:13">
+      <c r="A11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>82</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="9"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8" t="s">
+        <v>52</v>
+      </c>
       <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
-    <row r="12" ht="51.75" customHeight="1" spans="1:13">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="6"/>
+    <row r="12" ht="30" customHeight="1" spans="1:13">
+      <c r="A12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>84</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="8" t="s">
+        <v>72</v>
+      </c>
       <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" ht="35.25" customHeight="1" spans="1:13">
-      <c r="A13" s="4"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="6"/>
+    <row r="13" ht="30" customHeight="1" spans="1:13">
+      <c r="A13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>86</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="8">
+        <v>200</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:13">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="6"/>
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>88</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8">
+        <v>200</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" ht="30" customHeight="1" spans="1:13">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="6"/>
+    <row r="15" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>90</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="5"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8">
+        <v>200</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" ht="30" customHeight="1" spans="1:13">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="6"/>
+    <row r="16" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="5"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8">
+        <v>200</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
     <row r="17" ht="26.25" customHeight="1" spans="1:13">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="6"/>
+      <c r="A17" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>94</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="5"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8">
+        <v>200</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+    <row r="18" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A18" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8">
+        <v>200</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A19" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8">
+        <v>200</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A20" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8">
+        <v>200</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8">
+        <v>200</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" ht="26.25" customHeight="1" spans="1:13">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M17">
-    <extLst/>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://sandbox-xinli.fxz365.com/api/question"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D4" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D5" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D6" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D7" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D8" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D9" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D10" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D12" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D13" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D14" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D15" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D16" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D17" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D18" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D19" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D20" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
+    <hyperlink ref="D21" r:id="rId1" display="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list" tooltip="http://sandbox-xinli.fxz365.com/api/ydl/product/recommend_data_list"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
